--- a/education.xlsx
+++ b/education.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1656,8 +1656,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1780,7 +1780,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1815,7 +1814,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1991,16 +1989,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N484"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="O484" sqref="O484"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="120">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2042,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>79</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>6</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>42</v>
       </c>
@@ -2220,7 +2218,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>79</v>
       </c>
@@ -2264,7 +2262,7 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>26</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>79</v>
       </c>
@@ -2352,7 +2350,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>42</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>78</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>19</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>75</v>
       </c>
@@ -2616,7 +2614,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>65</v>
       </c>
@@ -2660,7 +2658,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>38</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>42</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>44</v>
       </c>
@@ -2792,7 +2790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>79</v>
       </c>
@@ -2836,7 +2834,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>84</v>
       </c>
@@ -2880,7 +2878,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>27</v>
       </c>
@@ -2924,7 +2922,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>51</v>
       </c>
@@ -2968,7 +2966,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>42</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>41</v>
       </c>
@@ -3056,7 +3054,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3100,7 +3098,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>15</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>30</v>
       </c>
@@ -3188,7 +3186,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>6</v>
       </c>
@@ -3232,7 +3230,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3276,7 +3274,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3320,7 +3318,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>13</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>67</v>
       </c>
@@ -3408,7 +3406,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3452,7 +3450,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>15</v>
       </c>
@@ -3496,7 +3494,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3540,7 +3538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>65</v>
       </c>
@@ -3584,7 +3582,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3628,7 +3626,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3672,7 +3670,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>79</v>
       </c>
@@ -3716,7 +3714,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>79</v>
       </c>
@@ -3760,7 +3758,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3804,7 +3802,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>75</v>
       </c>
@@ -3848,7 +3846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>85</v>
       </c>
@@ -3892,7 +3890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>6</v>
       </c>
@@ -3936,7 +3934,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3980,7 +3978,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>13</v>
       </c>
@@ -4024,7 +4022,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>33</v>
       </c>
@@ -4068,7 +4066,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>33</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>4</v>
       </c>
@@ -4156,7 +4154,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>30</v>
       </c>
@@ -4244,7 +4242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>84</v>
       </c>
@@ -4288,7 +4286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>33</v>
       </c>
@@ -4332,7 +4330,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>41</v>
       </c>
@@ -4376,7 +4374,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>77</v>
       </c>
@@ -4420,7 +4418,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>91</v>
       </c>
@@ -4464,7 +4462,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>78</v>
       </c>
@@ -4508,7 +4506,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>78</v>
       </c>
@@ -4552,7 +4550,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>75</v>
       </c>
@@ -4596,7 +4594,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>79</v>
       </c>
@@ -4640,7 +4638,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>15</v>
       </c>
@@ -4684,7 +4682,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>35</v>
       </c>
@@ -4728,7 +4726,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>35</v>
       </c>
@@ -4772,7 +4770,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>47</v>
       </c>
@@ -4816,7 +4814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>1</v>
       </c>
@@ -4860,7 +4858,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>15</v>
       </c>
@@ -4904,7 +4902,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4948,7 +4946,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>19</v>
       </c>
@@ -4992,7 +4990,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>30</v>
       </c>
@@ -5036,7 +5034,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>30</v>
       </c>
@@ -5080,7 +5078,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>68</v>
       </c>
@@ -5124,7 +5122,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>26</v>
       </c>
@@ -5168,7 +5166,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>47</v>
       </c>
@@ -5212,7 +5210,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>13</v>
       </c>
@@ -5256,7 +5254,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5300,7 +5298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>26</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>10</v>
       </c>
@@ -5388,7 +5386,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>82</v>
       </c>
@@ -5432,7 +5430,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>91</v>
       </c>
@@ -5476,7 +5474,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>26</v>
       </c>
@@ -5520,7 +5518,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>59</v>
       </c>
@@ -5564,7 +5562,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>1</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>59</v>
       </c>
@@ -5652,7 +5650,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>46</v>
       </c>
@@ -5696,7 +5694,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>57</v>
       </c>
@@ -5740,7 +5738,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>59</v>
       </c>
@@ -5784,7 +5782,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>78</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>19</v>
       </c>
@@ -5872,7 +5870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>93</v>
       </c>
@@ -5916,7 +5914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>19</v>
       </c>
@@ -5960,7 +5958,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>38</v>
       </c>
@@ -6004,7 +6002,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6048,7 +6046,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>13</v>
       </c>
@@ -6092,7 +6090,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>75</v>
       </c>
@@ -6136,7 +6134,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>35</v>
       </c>
@@ -6180,7 +6178,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>69</v>
       </c>
@@ -6224,7 +6222,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>87</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>33</v>
       </c>
@@ -6312,7 +6310,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>1</v>
       </c>
@@ -6356,7 +6354,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>59</v>
       </c>
@@ -6400,7 +6398,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>13</v>
       </c>
@@ -6444,7 +6442,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>6</v>
       </c>
@@ -6488,7 +6486,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>47</v>
       </c>
@@ -6532,7 +6530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>56</v>
       </c>
@@ -6576,7 +6574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>19</v>
       </c>
@@ -6620,7 +6618,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>91</v>
       </c>
@@ -6664,7 +6662,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>29</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>68</v>
       </c>
@@ -6752,7 +6750,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>69</v>
       </c>
@@ -6796,7 +6794,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>82</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>93</v>
       </c>
@@ -6884,7 +6882,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>19</v>
       </c>
@@ -6928,7 +6926,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>65</v>
       </c>
@@ -6972,7 +6970,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>41</v>
       </c>
@@ -7016,7 +7014,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>59</v>
       </c>
@@ -7060,7 +7058,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>15</v>
       </c>
@@ -7104,7 +7102,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>76</v>
       </c>
@@ -7148,7 +7146,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>15</v>
       </c>
@@ -7192,7 +7190,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>47</v>
       </c>
@@ -7236,7 +7234,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>58</v>
       </c>
@@ -7280,7 +7278,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>59</v>
       </c>
@@ -7324,7 +7322,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>29</v>
       </c>
@@ -7368,7 +7366,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>33</v>
       </c>
@@ -7412,7 +7410,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124">
         <v>67</v>
       </c>
@@ -7456,7 +7454,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125">
         <v>87</v>
       </c>
@@ -7500,7 +7498,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126">
         <v>19</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127">
         <v>27</v>
       </c>
@@ -7588,7 +7586,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128">
         <v>10</v>
       </c>
@@ -7632,7 +7630,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129">
         <v>38</v>
       </c>
@@ -7676,7 +7674,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130">
         <v>67</v>
       </c>
@@ -7720,7 +7718,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131">
         <v>73</v>
       </c>
@@ -7764,7 +7762,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132">
         <v>56</v>
       </c>
@@ -7808,7 +7806,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133">
         <v>13</v>
       </c>
@@ -7852,7 +7850,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134">
         <v>47</v>
       </c>
@@ -7896,7 +7894,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135">
         <v>91</v>
       </c>
@@ -7940,7 +7938,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136">
         <v>27</v>
       </c>
@@ -7984,7 +7982,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137">
         <v>50</v>
       </c>
@@ -8028,7 +8026,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138">
         <v>57</v>
       </c>
@@ -8072,7 +8070,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139">
         <v>13</v>
       </c>
@@ -8116,7 +8114,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140">
         <v>41</v>
       </c>
@@ -8160,7 +8158,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141">
         <v>41</v>
       </c>
@@ -8204,7 +8202,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142">
         <v>15</v>
       </c>
@@ -8248,7 +8246,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143">
         <v>38</v>
       </c>
@@ -8292,7 +8290,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144">
         <v>64</v>
       </c>
@@ -8336,7 +8334,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145">
         <v>12</v>
       </c>
@@ -8380,7 +8378,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146">
         <v>56</v>
       </c>
@@ -8424,7 +8422,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147">
         <v>94</v>
       </c>
@@ -8468,7 +8466,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148">
         <v>77</v>
       </c>
@@ -8512,7 +8510,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149">
         <v>41</v>
       </c>
@@ -8556,7 +8554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150">
         <v>19</v>
       </c>
@@ -8600,7 +8598,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14">
       <c r="A151">
         <v>27</v>
       </c>
@@ -8644,7 +8642,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="A152">
         <v>4</v>
       </c>
@@ -8688,7 +8686,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153">
         <v>41</v>
       </c>
@@ -8732,7 +8730,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154">
         <v>47</v>
       </c>
@@ -8776,7 +8774,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155">
         <v>12</v>
       </c>
@@ -8820,7 +8818,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14">
       <c r="A156">
         <v>15</v>
       </c>
@@ -8864,7 +8862,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14">
       <c r="A157">
         <v>27</v>
       </c>
@@ -8908,7 +8906,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158">
         <v>27</v>
       </c>
@@ -8952,7 +8950,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159">
         <v>47</v>
       </c>
@@ -8996,7 +8994,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160">
         <v>29</v>
       </c>
@@ -9040,7 +9038,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14">
       <c r="A161">
         <v>35</v>
       </c>
@@ -9084,7 +9082,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14">
       <c r="A162">
         <v>64</v>
       </c>
@@ -9128,7 +9126,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14">
       <c r="A163">
         <v>86</v>
       </c>
@@ -9172,7 +9170,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14">
       <c r="A164">
         <v>55</v>
       </c>
@@ -9216,7 +9214,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14">
       <c r="A165">
         <v>58</v>
       </c>
@@ -9260,7 +9258,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14">
       <c r="A166">
         <v>58</v>
       </c>
@@ -9304,7 +9302,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14">
       <c r="A167">
         <v>10</v>
       </c>
@@ -9348,7 +9346,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14">
       <c r="A168">
         <v>19</v>
       </c>
@@ -9392,7 +9390,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14">
       <c r="A169">
         <v>57</v>
       </c>
@@ -9436,7 +9434,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14">
       <c r="A170">
         <v>44</v>
       </c>
@@ -9480,7 +9478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14">
       <c r="A171">
         <v>49</v>
       </c>
@@ -9524,7 +9522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14">
       <c r="A172">
         <v>78</v>
       </c>
@@ -9568,7 +9566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14">
       <c r="A173">
         <v>15</v>
       </c>
@@ -9612,7 +9610,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14">
       <c r="A174">
         <v>51</v>
       </c>
@@ -9656,7 +9654,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14">
       <c r="A175">
         <v>58</v>
       </c>
@@ -9700,7 +9698,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14">
       <c r="A176">
         <v>48</v>
       </c>
@@ -9744,7 +9742,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14">
       <c r="A177">
         <v>55</v>
       </c>
@@ -9788,7 +9786,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14">
       <c r="A178">
         <v>86</v>
       </c>
@@ -9832,7 +9830,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14">
       <c r="A179">
         <v>87</v>
       </c>
@@ -9876,7 +9874,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14">
       <c r="A180">
         <v>10</v>
       </c>
@@ -9920,7 +9918,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14">
       <c r="A181">
         <v>61</v>
       </c>
@@ -9964,7 +9962,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14">
       <c r="A182">
         <v>75</v>
       </c>
@@ -10008,7 +10006,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14">
       <c r="A183">
         <v>27</v>
       </c>
@@ -10052,7 +10050,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14">
       <c r="A184">
         <v>30</v>
       </c>
@@ -10096,7 +10094,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14">
       <c r="A185">
         <v>88</v>
       </c>
@@ -10140,7 +10138,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14">
       <c r="A186">
         <v>15</v>
       </c>
@@ -10184,7 +10182,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14">
       <c r="A187">
         <v>15</v>
       </c>
@@ -10228,7 +10226,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14">
       <c r="A188">
         <v>76</v>
       </c>
@@ -10272,7 +10270,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14">
       <c r="A189">
         <v>27</v>
       </c>
@@ -10316,7 +10314,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14">
       <c r="A190">
         <v>75</v>
       </c>
@@ -10360,7 +10358,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14">
       <c r="A191">
         <v>81</v>
       </c>
@@ -10404,7 +10402,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14">
       <c r="A192">
         <v>12</v>
       </c>
@@ -10448,7 +10446,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14">
       <c r="A193">
         <v>19</v>
       </c>
@@ -10492,7 +10490,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14">
       <c r="A194">
         <v>82</v>
       </c>
@@ -10536,7 +10534,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14">
       <c r="A195">
         <v>86</v>
       </c>
@@ -10580,7 +10578,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14">
       <c r="A196">
         <v>51</v>
       </c>
@@ -10624,7 +10622,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14">
       <c r="A197">
         <v>54</v>
       </c>
@@ -10668,7 +10666,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14">
       <c r="A198">
         <v>19</v>
       </c>
@@ -10712,7 +10710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14">
       <c r="A199">
         <v>77</v>
       </c>
@@ -10756,7 +10754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14">
       <c r="A200">
         <v>68</v>
       </c>
@@ -10800,7 +10798,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14">
       <c r="A201">
         <v>87</v>
       </c>
@@ -10844,7 +10842,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14">
       <c r="A202">
         <v>87</v>
       </c>
@@ -10888,7 +10886,7 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14">
       <c r="A203">
         <v>26</v>
       </c>
@@ -10932,7 +10930,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14">
       <c r="A204">
         <v>12</v>
       </c>
@@ -10976,7 +10974,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14">
       <c r="A205">
         <v>19</v>
       </c>
@@ -11020,7 +11018,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14">
       <c r="A206">
         <v>36</v>
       </c>
@@ -11064,7 +11062,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14">
       <c r="A207">
         <v>69</v>
       </c>
@@ -11108,7 +11106,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14">
       <c r="A208">
         <v>44</v>
       </c>
@@ -11152,7 +11150,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14">
       <c r="A209">
         <v>47</v>
       </c>
@@ -11196,7 +11194,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14">
       <c r="A210">
         <v>93</v>
       </c>
@@ -11240,7 +11238,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14">
       <c r="A211">
         <v>81</v>
       </c>
@@ -11284,7 +11282,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14">
       <c r="A212">
         <v>91</v>
       </c>
@@ -11328,7 +11326,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14">
       <c r="A213">
         <v>64</v>
       </c>
@@ -11372,7 +11370,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14">
       <c r="A214">
         <v>1</v>
       </c>
@@ -11416,7 +11414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14">
       <c r="A215">
         <v>69</v>
       </c>
@@ -11460,7 +11458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14">
       <c r="A216">
         <v>93</v>
       </c>
@@ -11504,7 +11502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14">
       <c r="A217">
         <v>68</v>
       </c>
@@ -11548,7 +11546,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14">
       <c r="A218">
         <v>38</v>
       </c>
@@ -11592,7 +11590,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14">
       <c r="A219">
         <v>41</v>
       </c>
@@ -11636,7 +11634,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14">
       <c r="A220">
         <v>64</v>
       </c>
@@ -11680,7 +11678,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14">
       <c r="A221">
         <v>87</v>
       </c>
@@ -11724,7 +11722,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14">
       <c r="A222">
         <v>91</v>
       </c>
@@ -11768,7 +11766,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14">
       <c r="A223">
         <v>81</v>
       </c>
@@ -11812,7 +11810,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14">
       <c r="A224">
         <v>81</v>
       </c>
@@ -11856,7 +11854,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14">
       <c r="A225">
         <v>64</v>
       </c>
@@ -11900,7 +11898,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14">
       <c r="A226">
         <v>3</v>
       </c>
@@ -11944,7 +11942,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14">
       <c r="A227">
         <v>61</v>
       </c>
@@ -11988,7 +11986,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14">
       <c r="A228">
         <v>15</v>
       </c>
@@ -12032,7 +12030,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14">
       <c r="A229">
         <v>22</v>
       </c>
@@ -12076,7 +12074,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14">
       <c r="A230">
         <v>61</v>
       </c>
@@ -12120,7 +12118,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14">
       <c r="A231">
         <v>54</v>
       </c>
@@ -12164,7 +12162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14">
       <c r="A232">
         <v>55</v>
       </c>
@@ -12208,7 +12206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14">
       <c r="A233">
         <v>75</v>
       </c>
@@ -12252,7 +12250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14">
       <c r="A234">
         <v>15</v>
       </c>
@@ -12296,7 +12294,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14">
       <c r="A235">
         <v>48</v>
       </c>
@@ -12340,7 +12338,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14">
       <c r="A236">
         <v>19</v>
       </c>
@@ -12384,7 +12382,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14">
       <c r="A237">
         <v>81</v>
       </c>
@@ -12428,7 +12426,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14">
       <c r="A238">
         <v>50</v>
       </c>
@@ -12472,7 +12470,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14">
       <c r="A239">
         <v>78</v>
       </c>
@@ -12516,7 +12514,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14">
       <c r="A240">
         <v>6</v>
       </c>
@@ -12560,7 +12558,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14">
       <c r="A241">
         <v>58</v>
       </c>
@@ -12604,7 +12602,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14">
       <c r="A242">
         <v>58</v>
       </c>
@@ -12648,7 +12646,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14">
       <c r="A243">
         <v>87</v>
       </c>
@@ -12692,7 +12690,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14">
       <c r="A244">
         <v>47</v>
       </c>
@@ -12736,7 +12734,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14">
       <c r="A245">
         <v>68</v>
       </c>
@@ -12780,7 +12778,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14">
       <c r="A246">
         <v>56</v>
       </c>
@@ -12824,7 +12822,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14">
       <c r="A247">
         <v>58</v>
       </c>
@@ -12868,7 +12866,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14">
       <c r="A248">
         <v>73</v>
       </c>
@@ -12912,7 +12910,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14">
       <c r="A249">
         <v>82</v>
       </c>
@@ -12956,7 +12954,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14">
       <c r="A250">
         <v>12</v>
       </c>
@@ -13000,7 +12998,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14">
       <c r="A251">
         <v>54</v>
       </c>
@@ -13044,7 +13042,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14">
       <c r="A252">
         <v>81</v>
       </c>
@@ -13088,7 +13086,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14">
       <c r="A253">
         <v>13</v>
       </c>
@@ -13132,7 +13130,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14">
       <c r="A254">
         <v>27</v>
       </c>
@@ -13176,7 +13174,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14">
       <c r="A255">
         <v>88</v>
       </c>
@@ -13220,7 +13218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14">
       <c r="A256">
         <v>9</v>
       </c>
@@ -13264,7 +13262,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14">
       <c r="A257">
         <v>64</v>
       </c>
@@ -13308,7 +13306,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14">
       <c r="A258">
         <v>94</v>
       </c>
@@ -13352,7 +13350,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14">
       <c r="A259">
         <v>55</v>
       </c>
@@ -13396,7 +13394,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14">
       <c r="A260">
         <v>77</v>
       </c>
@@ -13440,7 +13438,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14">
       <c r="A261">
         <v>81</v>
       </c>
@@ -13484,7 +13482,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14">
       <c r="A262">
         <v>84</v>
       </c>
@@ -13528,7 +13526,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14">
       <c r="A263">
         <v>18</v>
       </c>
@@ -13572,7 +13570,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14">
       <c r="A264">
         <v>22</v>
       </c>
@@ -13616,7 +13614,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14">
       <c r="A265">
         <v>32</v>
       </c>
@@ -13660,7 +13658,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14">
       <c r="A266">
         <v>10</v>
       </c>
@@ -13704,7 +13702,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14">
       <c r="A267">
         <v>27</v>
       </c>
@@ -13748,7 +13746,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14">
       <c r="A268">
         <v>32</v>
       </c>
@@ -13792,7 +13790,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14">
       <c r="A269">
         <v>52</v>
       </c>
@@ -13836,7 +13834,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14">
       <c r="A270">
         <v>27</v>
       </c>
@@ -13880,7 +13878,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14">
       <c r="A271">
         <v>29</v>
       </c>
@@ -13924,7 +13922,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14">
       <c r="A272">
         <v>56</v>
       </c>
@@ -13968,7 +13966,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14">
       <c r="A273">
         <v>77</v>
       </c>
@@ -14012,7 +14010,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14">
       <c r="A274">
         <v>44</v>
       </c>
@@ -14056,7 +14054,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14">
       <c r="A275">
         <v>70</v>
       </c>
@@ -14100,7 +14098,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14">
       <c r="A276">
         <v>29</v>
       </c>
@@ -14144,7 +14142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14">
       <c r="A277">
         <v>39</v>
       </c>
@@ -14188,7 +14186,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14">
       <c r="A278">
         <v>91</v>
       </c>
@@ -14232,7 +14230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14">
       <c r="A279">
         <v>29</v>
       </c>
@@ -14276,7 +14274,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14">
       <c r="A280">
         <v>84</v>
       </c>
@@ -14320,7 +14318,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14">
       <c r="A281">
         <v>94</v>
       </c>
@@ -14364,7 +14362,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14">
       <c r="A282">
         <v>64</v>
       </c>
@@ -14408,7 +14406,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14">
       <c r="A283">
         <v>70</v>
       </c>
@@ -14452,7 +14450,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14">
       <c r="A284">
         <v>81</v>
       </c>
@@ -14496,7 +14494,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14">
       <c r="A285">
         <v>81</v>
       </c>
@@ -14540,7 +14538,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14">
       <c r="A286">
         <v>46</v>
       </c>
@@ -14584,7 +14582,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14">
       <c r="A287">
         <v>56</v>
       </c>
@@ -14628,7 +14626,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14">
       <c r="A288">
         <v>88</v>
       </c>
@@ -14672,7 +14670,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14">
       <c r="A289">
         <v>18</v>
       </c>
@@ -14716,7 +14714,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14">
       <c r="A290">
         <v>49</v>
       </c>
@@ -14760,7 +14758,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14">
       <c r="A291">
         <v>52</v>
       </c>
@@ -14804,7 +14802,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14">
       <c r="A292">
         <v>27</v>
       </c>
@@ -14848,7 +14846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14">
       <c r="A293">
         <v>52</v>
       </c>
@@ -14892,7 +14890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14">
       <c r="A294">
         <v>64</v>
       </c>
@@ -14936,7 +14934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14">
       <c r="A295">
         <v>72</v>
       </c>
@@ -14980,7 +14978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14">
       <c r="A296">
         <v>85</v>
       </c>
@@ -15024,7 +15022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14">
       <c r="A297">
         <v>18</v>
       </c>
@@ -15068,7 +15066,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14">
       <c r="A298">
         <v>73</v>
       </c>
@@ -15112,7 +15110,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14">
       <c r="A299">
         <v>88</v>
       </c>
@@ -15156,7 +15154,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14">
       <c r="A300">
         <v>93</v>
       </c>
@@ -15200,7 +15198,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14">
       <c r="A301">
         <v>49</v>
       </c>
@@ -15244,7 +15242,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14">
       <c r="A302">
         <v>76</v>
       </c>
@@ -15288,7 +15286,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14">
       <c r="A303">
         <v>70</v>
       </c>
@@ -15332,7 +15330,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14">
       <c r="A304">
         <v>64</v>
       </c>
@@ -15376,7 +15374,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14">
       <c r="A305">
         <v>78</v>
       </c>
@@ -15420,7 +15418,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14">
       <c r="A306">
         <v>85</v>
       </c>
@@ -15464,7 +15462,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14">
       <c r="A307">
         <v>50</v>
       </c>
@@ -15508,7 +15506,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14">
       <c r="A308">
         <v>52</v>
       </c>
@@ -15552,7 +15550,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14">
       <c r="A309">
         <v>9</v>
       </c>
@@ -15596,7 +15594,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14">
       <c r="A310">
         <v>52</v>
       </c>
@@ -15640,7 +15638,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14">
       <c r="A311">
         <v>91</v>
       </c>
@@ -15684,7 +15682,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14">
       <c r="A312">
         <v>46</v>
       </c>
@@ -15728,7 +15726,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14">
       <c r="A313">
         <v>44</v>
       </c>
@@ -15772,7 +15770,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14">
       <c r="A314">
         <v>49</v>
       </c>
@@ -15816,7 +15814,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14">
       <c r="A315">
         <v>50</v>
       </c>
@@ -15860,7 +15858,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14">
       <c r="A316">
         <v>64</v>
       </c>
@@ -15904,7 +15902,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14">
       <c r="A317">
         <v>19</v>
       </c>
@@ -15948,7 +15946,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14">
       <c r="A318">
         <v>39</v>
       </c>
@@ -15992,7 +15990,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14">
       <c r="A319">
         <v>48</v>
       </c>
@@ -16036,7 +16034,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14">
       <c r="A320">
         <v>85</v>
       </c>
@@ -16080,7 +16078,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14">
       <c r="A321">
         <v>84</v>
       </c>
@@ -16124,7 +16122,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14">
       <c r="A322">
         <v>46</v>
       </c>
@@ -16168,7 +16166,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14">
       <c r="A323">
         <v>86</v>
       </c>
@@ -16212,7 +16210,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14">
       <c r="A324">
         <v>18</v>
       </c>
@@ -16256,7 +16254,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14">
       <c r="A325">
         <v>46</v>
       </c>
@@ -16300,7 +16298,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14">
       <c r="A326">
         <v>84</v>
       </c>
@@ -16344,7 +16342,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14">
       <c r="A327">
         <v>84</v>
       </c>
@@ -16388,7 +16386,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14">
       <c r="A328">
         <v>84</v>
       </c>
@@ -16432,7 +16430,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14">
       <c r="A329">
         <v>10</v>
       </c>
@@ -16476,7 +16474,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14">
       <c r="A330">
         <v>32</v>
       </c>
@@ -16520,7 +16518,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14">
       <c r="A331">
         <v>76</v>
       </c>
@@ -16564,7 +16562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14">
       <c r="A332">
         <v>93</v>
       </c>
@@ -16608,7 +16606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14">
       <c r="A333">
         <v>93</v>
       </c>
@@ -16652,7 +16650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14">
       <c r="A334">
         <v>76</v>
       </c>
@@ -16696,7 +16694,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14">
       <c r="A335">
         <v>85</v>
       </c>
@@ -16740,7 +16738,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14">
       <c r="A336">
         <v>93</v>
       </c>
@@ -16784,7 +16782,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14">
       <c r="A337">
         <v>76</v>
       </c>
@@ -16828,7 +16826,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14">
       <c r="A338">
         <v>12</v>
       </c>
@@ -16872,7 +16870,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14">
       <c r="A339">
         <v>61</v>
       </c>
@@ -16916,7 +16914,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14">
       <c r="A340">
         <v>9</v>
       </c>
@@ -16960,7 +16958,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14">
       <c r="A341">
         <v>54</v>
       </c>
@@ -17004,7 +17002,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14">
       <c r="A342">
         <v>61</v>
       </c>
@@ -17048,7 +17046,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14">
       <c r="A343">
         <v>94</v>
       </c>
@@ -17092,7 +17090,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14">
       <c r="A344">
         <v>10</v>
       </c>
@@ -17136,7 +17134,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14">
       <c r="A345">
         <v>29</v>
       </c>
@@ -17180,7 +17178,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14">
       <c r="A346">
         <v>85</v>
       </c>
@@ -17224,7 +17222,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14">
       <c r="A347">
         <v>10</v>
       </c>
@@ -17268,7 +17266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14">
       <c r="A348">
         <v>19</v>
       </c>
@@ -17312,7 +17310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14">
       <c r="A349">
         <v>85</v>
       </c>
@@ -17356,7 +17354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14">
       <c r="A350">
         <v>89</v>
       </c>
@@ -17400,7 +17398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14">
       <c r="A351">
         <v>9</v>
       </c>
@@ -17444,7 +17442,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14">
       <c r="A352">
         <v>69</v>
       </c>
@@ -17488,7 +17486,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14">
       <c r="A353">
         <v>93</v>
       </c>
@@ -17532,7 +17530,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14">
       <c r="A354">
         <v>27</v>
       </c>
@@ -17576,7 +17574,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14">
       <c r="A355">
         <v>72</v>
       </c>
@@ -17620,7 +17618,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14">
       <c r="A356">
         <v>48</v>
       </c>
@@ -17664,7 +17662,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14">
       <c r="A357">
         <v>86</v>
       </c>
@@ -17708,7 +17706,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14">
       <c r="A358">
         <v>93</v>
       </c>
@@ -17752,7 +17750,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14">
       <c r="A359">
         <v>32</v>
       </c>
@@ -17796,7 +17794,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14">
       <c r="A360">
         <v>76</v>
       </c>
@@ -17840,7 +17838,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14">
       <c r="A361">
         <v>44</v>
       </c>
@@ -17884,7 +17882,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14">
       <c r="A362">
         <v>46</v>
       </c>
@@ -17928,7 +17926,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14">
       <c r="A363">
         <v>61</v>
       </c>
@@ -17972,7 +17970,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14">
       <c r="A364">
         <v>64</v>
       </c>
@@ -18016,7 +18014,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14">
       <c r="A365">
         <v>73</v>
       </c>
@@ -18060,7 +18058,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14">
       <c r="A366">
         <v>72</v>
       </c>
@@ -18104,7 +18102,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14">
       <c r="A367">
         <v>86</v>
       </c>
@@ -18148,7 +18146,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14">
       <c r="A368">
         <v>94</v>
       </c>
@@ -18192,7 +18190,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14">
       <c r="A369">
         <v>50</v>
       </c>
@@ -18236,7 +18234,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14">
       <c r="A370">
         <v>69</v>
       </c>
@@ -18280,7 +18278,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14">
       <c r="A371">
         <v>76</v>
       </c>
@@ -18324,7 +18322,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14">
       <c r="A372">
         <v>84</v>
       </c>
@@ -18368,7 +18366,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14">
       <c r="A373">
         <v>85</v>
       </c>
@@ -18412,7 +18410,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14">
       <c r="A374">
         <v>48</v>
       </c>
@@ -18456,7 +18454,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14">
       <c r="A375">
         <v>9</v>
       </c>
@@ -18500,7 +18498,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14">
       <c r="A376">
         <v>91</v>
       </c>
@@ -18544,7 +18542,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14">
       <c r="A377">
         <v>50</v>
       </c>
@@ -18588,7 +18586,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14">
       <c r="A378">
         <v>48</v>
       </c>
@@ -18632,7 +18630,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14">
       <c r="A379">
         <v>70</v>
       </c>
@@ -18676,7 +18674,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14">
       <c r="A380">
         <v>76</v>
       </c>
@@ -18720,7 +18718,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14">
       <c r="A381">
         <v>93</v>
       </c>
@@ -18764,7 +18762,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14">
       <c r="A382">
         <v>93</v>
       </c>
@@ -18808,7 +18806,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14">
       <c r="A383">
         <v>36</v>
       </c>
@@ -18852,7 +18850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14">
       <c r="A384">
         <v>61</v>
       </c>
@@ -18896,7 +18894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14">
       <c r="A385">
         <v>67</v>
       </c>
@@ -18940,7 +18938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14">
       <c r="A386">
         <v>12</v>
       </c>
@@ -18984,7 +18982,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14">
       <c r="A387">
         <v>6</v>
       </c>
@@ -19028,7 +19026,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14">
       <c r="A388">
         <v>36</v>
       </c>
@@ -19072,7 +19070,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14">
       <c r="A389">
         <v>46</v>
       </c>
@@ -19116,7 +19114,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14">
       <c r="A390">
         <v>32</v>
       </c>
@@ -19160,7 +19158,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14">
       <c r="A391">
         <v>32</v>
       </c>
@@ -19204,7 +19202,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14">
       <c r="A392">
         <v>48</v>
       </c>
@@ -19248,7 +19246,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14">
       <c r="A393">
         <v>29</v>
       </c>
@@ -19292,7 +19290,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14">
       <c r="A394">
         <v>68</v>
       </c>
@@ -19336,7 +19334,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14">
       <c r="A395">
         <v>61</v>
       </c>
@@ -19380,7 +19378,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14">
       <c r="A396">
         <v>82</v>
       </c>
@@ -19424,7 +19422,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14">
       <c r="A397">
         <v>9</v>
       </c>
@@ -19468,7 +19466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14">
       <c r="A398">
         <v>61</v>
       </c>
@@ -19512,7 +19510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14">
       <c r="A399">
         <v>90</v>
       </c>
@@ -19556,7 +19554,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14">
       <c r="A400">
         <v>36</v>
       </c>
@@ -19600,7 +19598,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14">
       <c r="A401">
         <v>36</v>
       </c>
@@ -19644,7 +19642,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14">
       <c r="A402">
         <v>10</v>
       </c>
@@ -19688,7 +19686,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14">
       <c r="A403">
         <v>19</v>
       </c>
@@ -19732,7 +19730,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14">
       <c r="A404">
         <v>49</v>
       </c>
@@ -19776,7 +19774,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14">
       <c r="A405">
         <v>49</v>
       </c>
@@ -19820,7 +19818,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14">
       <c r="A406">
         <v>72</v>
       </c>
@@ -19864,7 +19862,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14">
       <c r="A407">
         <v>70</v>
       </c>
@@ -19908,7 +19906,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14">
       <c r="A408">
         <v>51</v>
       </c>
@@ -19952,7 +19950,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14">
       <c r="A409">
         <v>88</v>
       </c>
@@ -19996,7 +19994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14">
       <c r="A410">
         <v>89</v>
       </c>
@@ -20040,7 +20038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14">
       <c r="A411">
         <v>61</v>
       </c>
@@ -20084,7 +20082,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14">
       <c r="A412">
         <v>90</v>
       </c>
@@ -20128,7 +20126,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14">
       <c r="A413">
         <v>91</v>
       </c>
@@ -20172,7 +20170,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14">
       <c r="A414">
         <v>49</v>
       </c>
@@ -20216,7 +20214,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14">
       <c r="A415">
         <v>72</v>
       </c>
@@ -20260,7 +20258,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14">
       <c r="A416">
         <v>89</v>
       </c>
@@ -20304,7 +20302,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14">
       <c r="A417">
         <v>29</v>
       </c>
@@ -20348,7 +20346,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14">
       <c r="A418">
         <v>48</v>
       </c>
@@ -20392,7 +20390,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14">
       <c r="A419">
         <v>90</v>
       </c>
@@ -20436,7 +20434,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14">
       <c r="A420">
         <v>12</v>
       </c>
@@ -20480,7 +20478,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14">
       <c r="A421">
         <v>73</v>
       </c>
@@ -20524,7 +20522,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14">
       <c r="A422">
         <v>88</v>
       </c>
@@ -20568,7 +20566,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14">
       <c r="A423">
         <v>88</v>
       </c>
@@ -20612,7 +20610,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14">
       <c r="A424">
         <v>73</v>
       </c>
@@ -20656,7 +20654,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14">
       <c r="A425">
         <v>61</v>
       </c>
@@ -20700,7 +20698,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14">
       <c r="A426">
         <v>72</v>
       </c>
@@ -20744,7 +20742,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14">
       <c r="A427">
         <v>72</v>
       </c>
@@ -20788,7 +20786,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14">
       <c r="A428">
         <v>88</v>
       </c>
@@ -20832,7 +20830,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14">
       <c r="A429">
         <v>15</v>
       </c>
@@ -20876,7 +20874,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14">
       <c r="A430">
         <v>36</v>
       </c>
@@ -20920,7 +20918,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14">
       <c r="A431">
         <v>90</v>
       </c>
@@ -20964,7 +20962,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14">
       <c r="A432">
         <v>10</v>
       </c>
@@ -21008,7 +21006,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14">
       <c r="A433">
         <v>89</v>
       </c>
@@ -21052,7 +21050,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14">
       <c r="A434">
         <v>22</v>
       </c>
@@ -21096,7 +21094,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14">
       <c r="A435">
         <v>72</v>
       </c>
@@ -21140,7 +21138,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14">
       <c r="A436">
         <v>49</v>
       </c>
@@ -21184,7 +21182,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14">
       <c r="A437">
         <v>88</v>
       </c>
@@ -21228,7 +21226,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14">
       <c r="A438">
         <v>22</v>
       </c>
@@ -21272,7 +21270,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14">
       <c r="A439">
         <v>39</v>
       </c>
@@ -21316,7 +21314,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14">
       <c r="A440">
         <v>48</v>
       </c>
@@ -21360,7 +21358,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14">
       <c r="A441">
         <v>10</v>
       </c>
@@ -21404,7 +21402,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14">
       <c r="A442">
         <v>22</v>
       </c>
@@ -21448,7 +21446,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14">
       <c r="A443">
         <v>46</v>
       </c>
@@ -21492,7 +21490,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14">
       <c r="A444">
         <v>12</v>
       </c>
@@ -21536,7 +21534,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14">
       <c r="A445">
         <v>56</v>
       </c>
@@ -21580,7 +21578,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14">
       <c r="A446">
         <v>89</v>
       </c>
@@ -21624,7 +21622,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14">
       <c r="A447">
         <v>36</v>
       </c>
@@ -21668,7 +21666,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14">
       <c r="A448">
         <v>49</v>
       </c>
@@ -21712,7 +21710,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14">
       <c r="A449">
         <v>90</v>
       </c>
@@ -21756,7 +21754,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14">
       <c r="A450">
         <v>90</v>
       </c>
@@ -21800,7 +21798,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14">
       <c r="A451">
         <v>75</v>
       </c>
@@ -21844,7 +21842,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14">
       <c r="A452">
         <v>3</v>
       </c>
@@ -21888,7 +21886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14">
       <c r="A453">
         <v>22</v>
       </c>
@@ -21932,7 +21930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14">
       <c r="A454">
         <v>36</v>
       </c>
@@ -21976,7 +21974,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14">
       <c r="A455">
         <v>39</v>
       </c>
@@ -22020,7 +22018,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14">
       <c r="A456">
         <v>39</v>
       </c>
@@ -22064,7 +22062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14">
       <c r="A457">
         <v>84</v>
       </c>
@@ -22108,7 +22106,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14">
       <c r="A458">
         <v>75</v>
       </c>
@@ -22152,7 +22150,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14">
       <c r="A459">
         <v>39</v>
       </c>
@@ -22196,7 +22194,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14">
       <c r="A460">
         <v>90</v>
       </c>
@@ -22240,7 +22238,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14">
       <c r="A461">
         <v>90</v>
       </c>
@@ -22284,7 +22282,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14">
       <c r="A462">
         <v>9</v>
       </c>
@@ -22328,7 +22326,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14">
       <c r="A463">
         <v>48</v>
       </c>
@@ -22372,7 +22370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14">
       <c r="A464">
         <v>3</v>
       </c>
@@ -22416,7 +22414,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14">
       <c r="A465">
         <v>3</v>
       </c>
@@ -22460,7 +22458,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14">
       <c r="A466">
         <v>32</v>
       </c>
@@ -22504,7 +22502,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14">
       <c r="A467">
         <v>3</v>
       </c>
@@ -22548,7 +22546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14">
       <c r="A468">
         <v>48</v>
       </c>
@@ -22592,7 +22590,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14">
       <c r="A469">
         <v>22</v>
       </c>
@@ -22636,7 +22634,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14">
       <c r="A470">
         <v>51</v>
       </c>
@@ -22680,7 +22678,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14">
       <c r="A471">
         <v>72</v>
       </c>
@@ -22724,7 +22722,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14">
       <c r="A472">
         <v>72</v>
       </c>
@@ -22768,7 +22766,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14">
       <c r="A473">
         <v>90</v>
       </c>
@@ -22812,7 +22810,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14">
       <c r="A474">
         <v>90</v>
       </c>
@@ -22856,7 +22854,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14">
       <c r="A475">
         <v>91</v>
       </c>
@@ -22900,7 +22898,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14">
       <c r="A476">
         <v>39</v>
       </c>
@@ -22944,7 +22942,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14">
       <c r="A477">
         <v>61</v>
       </c>
@@ -22988,7 +22986,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14">
       <c r="A478">
         <v>90</v>
       </c>
@@ -23032,7 +23030,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14">
       <c r="A479">
         <v>3</v>
       </c>
@@ -23076,7 +23074,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14">
       <c r="A480">
         <v>48</v>
       </c>
@@ -23120,7 +23118,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14">
       <c r="A481">
         <v>48</v>
       </c>
@@ -23164,7 +23162,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14">
       <c r="A482">
         <v>3</v>
       </c>
@@ -23208,7 +23206,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14">
       <c r="A483">
         <v>22</v>
       </c>
@@ -23252,7 +23250,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14">
       <c r="A484">
         <v>91</v>
       </c>
@@ -23306,24 +23304,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
